--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_4_8.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_4_8.xlsx
@@ -478,249 +478,249 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_1</t>
+          <t>model_4_8_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1051298067803967</v>
+        <v>0.5004926934021611</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.134436813234986</v>
+        <v>0.824446744700852</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7925353005005313</v>
+        <v>0.8378541844271405</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2949045233063676</v>
+        <v>0.8315618278201017</v>
       </c>
       <c r="F2" t="n">
-        <v>1.223052978515625</v>
+        <v>0.5528073906898499</v>
       </c>
       <c r="G2" t="n">
-        <v>2.684027194976807</v>
+        <v>0.2289877682924271</v>
       </c>
       <c r="H2" t="n">
-        <v>1.862284421920776</v>
+        <v>0.1838966757059097</v>
       </c>
       <c r="I2" t="n">
-        <v>2.297324657440186</v>
+        <v>0.207768440246582</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_24</t>
+          <t>model_4_8_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.5370917275399447</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1339951414056242</v>
+        <v>0.8216897894654159</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7912291372546221</v>
+        <v>0.7514891257035685</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2942327534771005</v>
+        <v>0.7926496294314354</v>
       </c>
       <c r="F3" t="n">
-        <v>1.222268342971802</v>
+        <v>0.5123030543327332</v>
       </c>
       <c r="G3" t="n">
-        <v>2.682982206344604</v>
+        <v>0.2325838655233383</v>
       </c>
       <c r="H3" t="n">
-        <v>1.860927581787109</v>
+        <v>0.2818470597267151</v>
       </c>
       <c r="I3" t="n">
-        <v>2.296133041381836</v>
+        <v>0.2557666301727295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_22</t>
+          <t>model_4_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.6216843769568885</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1339951414056242</v>
+        <v>-0.1538938502984271</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7912291372546221</v>
+        <v>0.03973894339921935</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2942327534771005</v>
+        <v>-0.06147598979003166</v>
       </c>
       <c r="F4" t="n">
-        <v>1.222268342971802</v>
+        <v>0.4186838567256927</v>
       </c>
       <c r="G4" t="n">
-        <v>2.682982206344604</v>
+        <v>1.505113363265991</v>
       </c>
       <c r="H4" t="n">
-        <v>1.860927581787109</v>
+        <v>1.08907413482666</v>
       </c>
       <c r="I4" t="n">
-        <v>2.296133041381836</v>
+        <v>1.309330224990845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_21</t>
+          <t>model_4_8_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.6246491648554175</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1339951414056242</v>
+        <v>-0.1443440280570365</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7912291372546221</v>
+        <v>0.04670928445188971</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2942327534771005</v>
+        <v>-0.05311372245393797</v>
       </c>
       <c r="F5" t="n">
-        <v>1.222268342971802</v>
+        <v>0.415402740240097</v>
       </c>
       <c r="G5" t="n">
-        <v>2.682982206344604</v>
+        <v>1.492656946182251</v>
       </c>
       <c r="H5" t="n">
-        <v>1.860927581787109</v>
+        <v>1.0811687707901</v>
       </c>
       <c r="I5" t="n">
-        <v>2.296133041381836</v>
+        <v>1.299015522003174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_20</t>
+          <t>model_4_8_23</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.6248814228733295</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1339951414056242</v>
+        <v>-0.1452157333405322</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7912291372546221</v>
+        <v>0.04891009324202511</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2942327534771005</v>
+        <v>-0.05264953024013574</v>
       </c>
       <c r="F6" t="n">
-        <v>1.222268342971802</v>
+        <v>0.4151457250118256</v>
       </c>
       <c r="G6" t="n">
-        <v>2.682982206344604</v>
+        <v>1.493793964385986</v>
       </c>
       <c r="H6" t="n">
-        <v>1.860927581787109</v>
+        <v>1.078672647476196</v>
       </c>
       <c r="I6" t="n">
-        <v>2.296133041381836</v>
+        <v>1.298442840576172</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_19</t>
+          <t>model_4_8_24</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.6250513292857243</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1339951414056242</v>
+        <v>-0.1451467909541622</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7912291372546221</v>
+        <v>0.04960988236461727</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2942327534771005</v>
+        <v>-0.05230814847692677</v>
       </c>
       <c r="F7" t="n">
-        <v>1.222268342971802</v>
+        <v>0.4149576723575592</v>
       </c>
       <c r="G7" t="n">
-        <v>2.682982206344604</v>
+        <v>1.493704080581665</v>
       </c>
       <c r="H7" t="n">
-        <v>1.860927581787109</v>
+        <v>1.077878952026367</v>
       </c>
       <c r="I7" t="n">
-        <v>2.296133041381836</v>
+        <v>1.298021674156189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_18</t>
+          <t>model_4_8_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.6263881645385998</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1339951414056242</v>
+        <v>0.4501810612946222</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7912291372546221</v>
+        <v>0.5509275005255272</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2942327534771005</v>
+        <v>0.4978874039461524</v>
       </c>
       <c r="F8" t="n">
-        <v>1.222268342971802</v>
+        <v>0.4134782254695892</v>
       </c>
       <c r="G8" t="n">
-        <v>2.682982206344604</v>
+        <v>0.7171716094017029</v>
       </c>
       <c r="H8" t="n">
-        <v>1.860927581787109</v>
+        <v>0.5093128085136414</v>
       </c>
       <c r="I8" t="n">
-        <v>2.296133041381836</v>
+        <v>0.6193556785583496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_17</t>
+          <t>model_4_8_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.6269065238847529</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1339951414056242</v>
+        <v>-0.1320177567459038</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7912291372546221</v>
+        <v>0.05106931095122302</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2942327534771005</v>
+        <v>-0.04432676264263846</v>
       </c>
       <c r="F9" t="n">
-        <v>1.222268342971802</v>
+        <v>0.4129045307636261</v>
       </c>
       <c r="G9" t="n">
-        <v>2.682982206344604</v>
+        <v>1.476578831672668</v>
       </c>
       <c r="H9" t="n">
-        <v>1.860927581787109</v>
+        <v>1.076223850250244</v>
       </c>
       <c r="I9" t="n">
-        <v>2.296133041381836</v>
+        <v>1.288176536560059</v>
       </c>
     </row>
     <row r="10">
@@ -730,524 +730,524 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.6274685010225862</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1339951414056242</v>
+        <v>-0.1292199468941047</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7912291372546221</v>
+        <v>0.05051557756453018</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2942327534771005</v>
+        <v>-0.042999867852338</v>
       </c>
       <c r="F10" t="n">
-        <v>1.222268342971802</v>
+        <v>0.4122826159000397</v>
       </c>
       <c r="G10" t="n">
-        <v>2.682982206344604</v>
+        <v>1.472929358482361</v>
       </c>
       <c r="H10" t="n">
-        <v>1.860927581787109</v>
+        <v>1.076851844787598</v>
       </c>
       <c r="I10" t="n">
-        <v>2.296133041381836</v>
+        <v>1.286540031433105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_15</t>
+          <t>model_4_8_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.6281181279095499</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1339951414056242</v>
+        <v>-0.1315074809533789</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.7912291372546221</v>
+        <v>0.05568704152164472</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2942327534771005</v>
+        <v>-0.04204287613716562</v>
       </c>
       <c r="F11" t="n">
-        <v>1.222268342971802</v>
+        <v>0.4115636646747589</v>
       </c>
       <c r="G11" t="n">
-        <v>2.682982206344604</v>
+        <v>1.475913166999817</v>
       </c>
       <c r="H11" t="n">
-        <v>1.860927581787109</v>
+        <v>1.070986747741699</v>
       </c>
       <c r="I11" t="n">
-        <v>2.296133041381836</v>
+        <v>1.285359501838684</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_23</t>
+          <t>model_4_8_18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1044207275114706</v>
+        <v>0.6291086981772611</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1339951414056242</v>
+        <v>-0.1298785772620183</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7912291372546221</v>
+        <v>0.06112332484217819</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2942327534771005</v>
+        <v>-0.03877869882098217</v>
       </c>
       <c r="F12" t="n">
-        <v>1.222268342971802</v>
+        <v>0.4104673564434052</v>
       </c>
       <c r="G12" t="n">
-        <v>2.682982206344604</v>
+        <v>1.473788499832153</v>
       </c>
       <c r="H12" t="n">
-        <v>1.860927581787109</v>
+        <v>1.064821124076843</v>
       </c>
       <c r="I12" t="n">
-        <v>2.296133041381836</v>
+        <v>1.281333208084106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_14</t>
+          <t>model_4_8_20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.1043914079599257</v>
+        <v>0.6293786538106247</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1340091240348338</v>
+        <v>-0.1321652265791273</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7909733951285427</v>
+        <v>0.064238876050562</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2941720710939075</v>
+        <v>-0.03871083573437906</v>
       </c>
       <c r="F13" t="n">
-        <v>1.222235918045044</v>
+        <v>0.4101686179637909</v>
       </c>
       <c r="G13" t="n">
-        <v>2.6830153465271</v>
+        <v>1.476771116256714</v>
       </c>
       <c r="H13" t="n">
-        <v>1.860661864280701</v>
+        <v>1.061287641525269</v>
       </c>
       <c r="I13" t="n">
-        <v>2.296025276184082</v>
+        <v>1.281249284744263</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_13</t>
+          <t>model_4_8_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1043631554170463</v>
+        <v>0.6314278531976811</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1339686133436206</v>
+        <v>-0.1177641745179763</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7908659754751914</v>
+        <v>0.06472593760201317</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2941139470575291</v>
+        <v>-0.03043764667925686</v>
       </c>
       <c r="F14" t="n">
-        <v>1.222204446792603</v>
+        <v>0.4079007506370544</v>
       </c>
       <c r="G14" t="n">
-        <v>2.682919502258301</v>
+        <v>1.45798671245575</v>
       </c>
       <c r="H14" t="n">
-        <v>1.860550165176392</v>
+        <v>1.06073522567749</v>
       </c>
       <c r="I14" t="n">
-        <v>2.29592227935791</v>
+        <v>1.271044611930847</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_12</t>
+          <t>model_4_8_17</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1043627151313129</v>
+        <v>0.6316389457333789</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1339684515952291</v>
+        <v>-0.1211546863532611</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7908618572242883</v>
+        <v>0.06766731204835452</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2941126663662144</v>
+        <v>-0.03106335346953859</v>
       </c>
       <c r="F15" t="n">
-        <v>1.222204089164734</v>
+        <v>0.4076671600341797</v>
       </c>
       <c r="G15" t="n">
-        <v>2.682919025421143</v>
+        <v>1.462409257888794</v>
       </c>
       <c r="H15" t="n">
-        <v>1.860545992851257</v>
+        <v>1.057399272918701</v>
       </c>
       <c r="I15" t="n">
-        <v>2.295919418334961</v>
+        <v>1.271816253662109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_10</t>
+          <t>model_4_8_8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1043521319674992</v>
+        <v>0.6406883872235041</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1339743828361173</v>
+        <v>-0.07119500867106554</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7907658044454371</v>
+        <v>0.09183769922039875</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2940903370602668</v>
+        <v>0.007363762174196764</v>
       </c>
       <c r="F16" t="n">
-        <v>1.222192525863647</v>
+        <v>0.3976520895957947</v>
       </c>
       <c r="G16" t="n">
-        <v>2.68293285369873</v>
+        <v>1.397242903709412</v>
       </c>
       <c r="H16" t="n">
-        <v>1.860446214675903</v>
+        <v>1.029986619949341</v>
       </c>
       <c r="I16" t="n">
-        <v>2.295880079269409</v>
+        <v>1.224416375160217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_11</t>
+          <t>model_4_8_7</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1043458928783185</v>
+        <v>0.6408904560059603</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1339569977720447</v>
+        <v>-0.06928780763364406</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7907649599978206</v>
+        <v>0.09197539625815254</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2940779092438055</v>
+        <v>0.008491222385655472</v>
       </c>
       <c r="F17" t="n">
-        <v>1.222185373306274</v>
+        <v>0.3974284529685974</v>
       </c>
       <c r="G17" t="n">
-        <v>2.682892084121704</v>
+        <v>1.394755244255066</v>
       </c>
       <c r="H17" t="n">
-        <v>1.860445261001587</v>
+        <v>1.029830455780029</v>
       </c>
       <c r="I17" t="n">
-        <v>2.295858383178711</v>
+        <v>1.223025798797607</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_9</t>
+          <t>model_4_8_13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1042519373946229</v>
+        <v>0.6412870941971612</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1339047209876583</v>
+        <v>-0.0922158452837003</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7901958507120161</v>
+        <v>0.101767543426714</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2938842495012337</v>
+        <v>-0.0001081012309180895</v>
       </c>
       <c r="F18" t="n">
-        <v>1.222081422805786</v>
+        <v>0.396989494562149</v>
       </c>
       <c r="G18" t="n">
-        <v>2.682768106460571</v>
+        <v>1.424662113189697</v>
       </c>
       <c r="H18" t="n">
-        <v>1.859853982925415</v>
+        <v>1.018724679946899</v>
       </c>
       <c r="I18" t="n">
-        <v>2.295514822006226</v>
+        <v>1.233633041381836</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_8</t>
+          <t>model_4_8_12</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1032582428178892</v>
+        <v>0.6415865160413092</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1330206709156394</v>
+        <v>-0.07749238181008877</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.7850294287562809</v>
+        <v>0.09129404248846296</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.291836295399537</v>
+        <v>0.003603083181670796</v>
       </c>
       <c r="F19" t="n">
-        <v>1.22098183631897</v>
+        <v>0.3966580927371979</v>
       </c>
       <c r="G19" t="n">
-        <v>2.680676460266113</v>
+        <v>1.405457019805908</v>
       </c>
       <c r="H19" t="n">
-        <v>1.854486584663391</v>
+        <v>1.030603170394897</v>
       </c>
       <c r="I19" t="n">
-        <v>2.291881322860718</v>
+        <v>1.229055285453796</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_7</t>
+          <t>model_4_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1031707860476003</v>
+        <v>0.6502616257348466</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1329019833459177</v>
+        <v>-0.02434665208738496</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.7846737648111028</v>
+        <v>0.1188551235510156</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2916544889362505</v>
+        <v>0.04528098975513428</v>
       </c>
       <c r="F20" t="n">
-        <v>1.220885038375854</v>
+        <v>0.3870573043823242</v>
       </c>
       <c r="G20" t="n">
-        <v>2.680395841598511</v>
+        <v>1.336135029792786</v>
       </c>
       <c r="H20" t="n">
-        <v>1.854117155075073</v>
+        <v>0.9993449449539185</v>
       </c>
       <c r="I20" t="n">
-        <v>2.291558742523193</v>
+        <v>1.177645683288574</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_6</t>
+          <t>model_4_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1022792503737864</v>
+        <v>0.6540721704436856</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1317472535116331</v>
+        <v>0.04539025176216283</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.7809085432122405</v>
+        <v>0.1059703810479397</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2898016879241039</v>
+        <v>0.07874698604117536</v>
       </c>
       <c r="F21" t="n">
-        <v>1.219898343086243</v>
+        <v>0.3828401565551758</v>
       </c>
       <c r="G21" t="n">
-        <v>2.677663564682007</v>
+        <v>1.245171785354614</v>
       </c>
       <c r="H21" t="n">
-        <v>1.850205421447754</v>
+        <v>1.013958215713501</v>
       </c>
       <c r="I21" t="n">
-        <v>2.28827166557312</v>
+        <v>1.136365175247192</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_3</t>
+          <t>model_4_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.102016042377183</v>
+        <v>0.6542515067731459</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1348150057844353</v>
+        <v>0.1635154596462454</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.770362850541767</v>
+        <v>0.03309035297881335</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2890615112914381</v>
+        <v>0.1133433531172102</v>
       </c>
       <c r="F22" t="n">
-        <v>1.219606995582581</v>
+        <v>0.3826417326927185</v>
       </c>
       <c r="G22" t="n">
-        <v>2.684921741485596</v>
+        <v>1.091091752052307</v>
       </c>
       <c r="H22" t="n">
-        <v>1.8392493724823</v>
+        <v>1.096614599227905</v>
       </c>
       <c r="I22" t="n">
-        <v>2.286958694458008</v>
+        <v>1.093690633773804</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_5</t>
+          <t>model_4_8_9</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1015389165443554</v>
+        <v>0.6570777707352462</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1302993553025911</v>
+        <v>-0.02763427200759483</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7788811221967289</v>
+        <v>0.1412597755639344</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.2882206039677211</v>
+        <v>0.05313462448520401</v>
       </c>
       <c r="F23" t="n">
-        <v>1.21907901763916</v>
+        <v>0.3795138895511627</v>
       </c>
       <c r="G23" t="n">
-        <v>2.674238204956055</v>
+        <v>1.340423226356506</v>
       </c>
       <c r="H23" t="n">
-        <v>1.848098993301392</v>
+        <v>0.9739348888397217</v>
       </c>
       <c r="I23" t="n">
-        <v>2.28546667098999</v>
+        <v>1.16795825958252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_4</t>
+          <t>model_4_8_10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1005227166771578</v>
+        <v>0.6639069454294405</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1289050963848699</v>
+        <v>-0.006725342956210634</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.7746347357801993</v>
+        <v>0.1599633217782813</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.2860661431864489</v>
+        <v>0.07293275088286355</v>
       </c>
       <c r="F24" t="n">
-        <v>1.217954397201538</v>
+        <v>0.371955931186676</v>
       </c>
       <c r="G24" t="n">
-        <v>2.670939207077026</v>
+        <v>1.31315004825592</v>
       </c>
       <c r="H24" t="n">
-        <v>1.843687534332275</v>
+        <v>0.9527223110198975</v>
       </c>
       <c r="I24" t="n">
-        <v>2.281644344329834</v>
+        <v>1.143537163734436</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_0</t>
+          <t>model_4_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.09685896930300464</v>
+        <v>0.6645320791525886</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1348915068882657</v>
+        <v>-0.009244097743175361</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7267401371069309</v>
+        <v>0.1661670159683831</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.2770942542561625</v>
+        <v>0.07420691634656817</v>
       </c>
       <c r="F25" t="n">
-        <v>1.213899612426758</v>
+        <v>0.3712641596794128</v>
       </c>
       <c r="G25" t="n">
-        <v>2.685102939605713</v>
+        <v>1.31643545627594</v>
       </c>
       <c r="H25" t="n">
-        <v>1.793929219245911</v>
+        <v>0.9456865787506104</v>
       </c>
       <c r="I25" t="n">
-        <v>2.265726804733276</v>
+        <v>1.141965389251709</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_8_2</t>
+          <t>model_4_8_3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.09502137777160202</v>
+        <v>0.7078237969766707</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1344887311009189</v>
+        <v>0.4438762907675793</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.7190299094876693</v>
+        <v>0.2977487417073772</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.274685166251734</v>
+        <v>0.3848116229763152</v>
       </c>
       <c r="F26" t="n">
-        <v>1.211866021156311</v>
+        <v>0.3233529627323151</v>
       </c>
       <c r="G26" t="n">
-        <v>2.684149742126465</v>
+        <v>0.7253954410552979</v>
       </c>
       <c r="H26" t="n">
-        <v>1.785918951034546</v>
+        <v>0.7964538931846619</v>
       </c>
       <c r="I26" t="n">
-        <v>2.261452913284302</v>
+        <v>0.7588346600532532</v>
       </c>
     </row>
   </sheetData>
